--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,26 +38,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Param2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +127,10 @@
   </si>
   <si>
     <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +186,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -213,7 +209,9 @@
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Level"/>
     <tableColumn id="3" name="Bool"/>
-    <tableColumn id="4" name="Param2"/>
+    <tableColumn id="4" name="Formula" dataDxfId="0">
+      <calculatedColumnFormula>Names[[#This Row],[Name]]&amp;Names[[#This Row],[Level]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,7 +507,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,15 +523,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -541,13 +539,14 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3" t="str">
+        <f>Names[[#This Row],[Name]]&amp;Names[[#This Row],[Level]]</f>
+        <v>Hello1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -555,22 +554,23 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="E4" t="str">
+        <f>Names[[#This Row],[Name]]&amp;Names[[#This Row],[Level]]</f>
+        <v>Bye2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -641,58 +641,58 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
